--- a/data/output/FV2410_FV2404/UTILMD/55074.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55074.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6158" uniqueCount="476">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6179" uniqueCount="476">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1541,6 +1541,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U270" totalsRowShown="0">
+  <autoFilter ref="A1:U270"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1830,7 +1860,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U270"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -14975,5 +15008,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55074.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55074.xlsx
@@ -2767,7 +2767,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -4555,7 +4555,7 @@
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N37" s="2" t="s">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -5013,7 +5013,7 @@
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -5227,7 +5227,7 @@
         <v>444</v>
       </c>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -5431,7 +5431,7 @@
         <v>446</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -5635,7 +5635,7 @@
         <v>447</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5837,7 +5837,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -6039,7 +6039,7 @@
         <v>444</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -6187,7 +6187,7 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -6347,7 +6347,7 @@
         <v>449</v>
       </c>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -6495,7 +6495,7 @@
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -6655,7 +6655,7 @@
         <v>451</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -6855,7 +6855,7 @@
         <v>444</v>
       </c>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -7303,7 +7303,7 @@
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -7619,7 +7619,7 @@
       </c>
       <c r="K97" s="2"/>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -7987,7 +7987,7 @@
         <v>453</v>
       </c>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -8303,7 +8303,7 @@
         <v>449</v>
       </c>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -8451,7 +8451,7 @@
       </c>
       <c r="K113" s="2"/>
       <c r="L113" s="4"/>
-      <c r="M113" s="2" t="s">
+      <c r="M113" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -8613,7 +8613,7 @@
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -8831,7 +8831,7 @@
         <v>455</v>
       </c>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -8979,7 +8979,7 @@
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -9139,7 +9139,7 @@
         <v>456</v>
       </c>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -9545,7 +9545,7 @@
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -9699,7 +9699,7 @@
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -9895,7 +9895,7 @@
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -10151,7 +10151,7 @@
         <v>458</v>
       </c>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -10299,7 +10299,7 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -10461,7 +10461,7 @@
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -10679,7 +10679,7 @@
         <v>460</v>
       </c>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -10827,7 +10827,7 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -10991,7 +10991,7 @@
         <v>461</v>
       </c>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -11147,7 +11147,7 @@
       </c>
       <c r="K165" s="2"/>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -11721,7 +11721,7 @@
       </c>
       <c r="K176" s="2"/>
       <c r="L176" s="4"/>
-      <c r="M176" s="2" t="s">
+      <c r="M176" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -11881,7 +11881,7 @@
         <v>462</v>
       </c>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -12095,7 +12095,7 @@
       </c>
       <c r="K183" s="2"/>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -12251,7 +12251,7 @@
         <v>463</v>
       </c>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N186" s="2" t="s">
@@ -12401,7 +12401,7 @@
         <v>464</v>
       </c>
       <c r="L189" s="4"/>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N189" s="2" t="s">
@@ -12619,7 +12619,7 @@
       </c>
       <c r="K193" s="2"/>
       <c r="L193" s="4"/>
-      <c r="M193" s="2" t="s">
+      <c r="M193" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N193" s="2" t="s">
@@ -12783,7 +12783,7 @@
         <v>466</v>
       </c>
       <c r="L196" s="4"/>
-      <c r="M196" s="2" t="s">
+      <c r="M196" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N196" s="2" t="s">
@@ -12943,7 +12943,7 @@
       </c>
       <c r="K199" s="2"/>
       <c r="L199" s="4"/>
-      <c r="M199" s="2" t="s">
+      <c r="M199" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N199" s="2" t="s">
@@ -13161,7 +13161,7 @@
         <v>468</v>
       </c>
       <c r="L203" s="4"/>
-      <c r="M203" s="2" t="s">
+      <c r="M203" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N203" s="2" t="s">
@@ -13573,7 +13573,7 @@
         <v>469</v>
       </c>
       <c r="L211" s="4"/>
-      <c r="M211" s="2" t="s">
+      <c r="M211" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N211" s="2" t="s">
@@ -13931,7 +13931,7 @@
         <v>470</v>
       </c>
       <c r="L218" s="4"/>
-      <c r="M218" s="2" t="s">
+      <c r="M218" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N218" s="2" t="s">
@@ -14079,7 +14079,7 @@
       </c>
       <c r="K221" s="2"/>
       <c r="L221" s="4"/>
-      <c r="M221" s="2" t="s">
+      <c r="M221" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N221" s="2" t="s">
@@ -14233,7 +14233,7 @@
       </c>
       <c r="K224" s="2"/>
       <c r="L224" s="4"/>
-      <c r="M224" s="2" t="s">
+      <c r="M224" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N224" s="2" t="s">
@@ -14381,7 +14381,7 @@
         <v>471</v>
       </c>
       <c r="L227" s="4"/>
-      <c r="M227" s="2" t="s">
+      <c r="M227" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N227" s="2" t="s">
@@ -14541,7 +14541,7 @@
       </c>
       <c r="K230" s="2"/>
       <c r="L230" s="4"/>
-      <c r="M230" s="2" t="s">
+      <c r="M230" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N230" s="2" t="s">
@@ -14863,7 +14863,7 @@
         <v>470</v>
       </c>
       <c r="L236" s="4"/>
-      <c r="M236" s="2" t="s">
+      <c r="M236" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N236" s="2" t="s">
@@ -15153,7 +15153,7 @@
       </c>
       <c r="K242" s="2"/>
       <c r="L242" s="4"/>
-      <c r="M242" s="2" t="s">
+      <c r="M242" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N242" s="2" t="s">
@@ -15313,7 +15313,7 @@
         <v>474</v>
       </c>
       <c r="L245" s="4"/>
-      <c r="M245" s="2" t="s">
+      <c r="M245" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N245" s="2" t="s">
@@ -15461,7 +15461,7 @@
       </c>
       <c r="K248" s="2"/>
       <c r="L248" s="4"/>
-      <c r="M248" s="2" t="s">
+      <c r="M248" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N248" s="2" t="s">
@@ -15619,7 +15619,7 @@
       </c>
       <c r="K251" s="2"/>
       <c r="L251" s="4"/>
-      <c r="M251" s="2" t="s">
+      <c r="M251" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N251" s="2" t="s">
@@ -15777,7 +15777,7 @@
       </c>
       <c r="K254" s="2"/>
       <c r="L254" s="4"/>
-      <c r="M254" s="2" t="s">
+      <c r="M254" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N254" s="2" t="s">
@@ -15923,7 +15923,7 @@
       </c>
       <c r="K257" s="2"/>
       <c r="L257" s="4"/>
-      <c r="M257" s="2" t="s">
+      <c r="M257" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N257" s="2" t="s">
@@ -16083,7 +16083,7 @@
         <v>475</v>
       </c>
       <c r="L260" s="4"/>
-      <c r="M260" s="2" t="s">
+      <c r="M260" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N260" s="2" t="s">
@@ -16503,7 +16503,7 @@
       </c>
       <c r="K268" s="2"/>
       <c r="L268" s="4"/>
-      <c r="M268" s="2" t="s">
+      <c r="M268" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N268" s="2"/>
